--- a/CuaHangTrangSuc/productsInfo/product-detail.xlsx
+++ b/CuaHangTrangSuc/productsInfo/product-detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\GitHub\CuaHangTrangSuc-Nhom4-\CuaHangTrangSuc\productsInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
   <si>
     <t>id-product</t>
   </si>
@@ -597,15 +597,69 @@
 Đặc biệt hơn nữa, dây chuyền kiểu dây dập hình chữ S xoắn đoạn được xem là trang sức unisex – phù hợp cả cho phái mạnh và phái đẹp nên các bạn cũng có thể chọn làm quà tặng đặc biệt cho những cặp đang yêu nhau.</t>
   </si>
   <si>
-    <t>Dây chuyền PNJ vàng trắng 10K - Vẻ đẹp lấp lánh sang trọng của những món đồ trang sức từ vàng trắng luôn luôn thú hút không chỉ phái đẹp mà cả những cánh mày râu. Bên cạnh chất lượng thì vàng trắng của PNJ nổi tiếng với thiết kế độc đáo, mẫu mã đa dạng. Dây chuyền vàng trắng 10K mới lạ này sẽ chinh phục mọi cô gái. 
-Sợi dây chuyền có giá trị thẩm mỹ cao. Dây chuyền PNJ vàng trắng 10K thiết kế dây đan kiểu chữ cong có màu trắng tinh khiết, ánh kim lấp lánh cùng với đặc tính cứng, dẻo khiến vàng trắng phản quang đàn hồi tốt, chịu đựng được ma sát khi đeo. Vì vậy, ít bị hao mòn biến dạng, gẫy đứt. Đặc biệt có khả năng giữ chắc khi kết hợp với mặt dây chuyền mà không cần lo lắng. 
-Dây chuyền PNJ mang phong cách thời trang riêng. Theo quan niệm màu sắc đặc trưng của vàng trắng sẽ tôn tạo tính cách của người sở hữu. Dù bạn để tóc dài hay ngắn, làn da có hơi ngăm đen cũng không thành vần đề, sắc trắng trung tính của vàng trắng hài hòa sẽ giúp bạn tươi tắn và nổi bật. Phái đẹp luôn muốn thể hiện chính mình trước mọi người vì thế các bạn gái không thể bỏ qua những đặc tính của dây chuyền PNJ này mang lại. Bên cạnh đó, sản phẩm thích hợp với mọi bối cảnh khi bạn xuất hiện, trong những bộ cánh sang trọng hay trẻ trung năng động.</t>
-  </si>
-  <si>
-    <t>Dây Chuyền PNJ Vàng Trắng 10K - Khác với dây cổ, sợi dây chuyền thì bạn có thể mix kết hợp với nhiều mề đay hay những hạt charm có ý nghĩa của riêng mình để tạo ra những phong cách thời trang cá tính cho riêng bạn, giúp nam thanh nữ tú của chúng ta thật sự thời trang và sành điệu – PNJ nơi bạn có thể tự tin tỏa sáng. Tạo phong cách riêng với dây chuyền PNJ. Sở hữu sắc trắng hiện đại và sang trọng của chất liệu vàng trắng 10K – một trong những chất liệu phù hợp nhất khi kết hợp với các loại đá quý. Với dây chuyền vàng trắng các bạn trẻ có thể mix với những hạt charm hay mề đay đính đá quý như kim cương, Topaz, Ruby,… để mang đến những phong cách thời trang cá tính nhưng không kém phần sang trọng , giúp các bạn thật sự trở nên xinh xắn và nổi bật trong các buổi tiệc. Dây chuyền PNJ món quà gợi ý tuyệt vời. Và bạn cũng có thể mix dây chuyền  cùng những bộ trang phục sở hữu cổ áo rộng, sẽ giúp phái đẹp chúng ta trở nên vô cùng xinh xắn trong mắt người đối diện. Đây hứa hẹn sẽ là một sự lựa chọn thú vị cho các cô nàng cá tính, thể hiện "gu" thời trang đầy sự khác biệt của riêng mình.</t>
-  </si>
-  <si>
-    <t>Dây chuyền PNJ vàng 18K - Trang sức vàng 18K được thiết kế với rất nhiều mẫu mã và kiểu dáng khác nhau như: dây chuyền, hoa tai, lắc tay, nhẫn, …Trong đó, dây chuyền PNJ vàng 18K là món đồ phụ kiện trang sức không thể thiếu đối với phái đẹp mỗi khi tự tin bước chân xuống phố. Dây chuyền tạo điểm nhấn nổi bật. Thiết kế kiểu dáng dây thanh mảnh, sang trọng càng tô thêm nét đẹp nữ tính, đằm thắm cho người  Dây chuyền PNJ vàng 18K với sắc vàng rực rỡ đem lại nét rạng ngời cho bạn gái. Ngoài ra, dây chuyền PNJ thích hợp để trưng diện trong những ngày kỷ niệm trọng đại, cuộc vui hay hội nghị. Chắc chắn nó sẽ giúp bạn ghi điểm với người đối diện. Sợi dây chuyền mang phong cách đơn giản, tinh tế. Sợi dây chuyền PNJ không chỉ là nét đơn giản, dịu dàng mà còn mang đến cho phái đẹp vẻ ngoài thu hút. Bên cạnh đó, bạn có thể kết hợp với mặt dây chuyền hình trái tim có gắn đá với những đường uốn lượn và lấp lánh của đá. Trông bạn lúc này sẽ cực kỳ dịu dàng, đằm thắm mà rất đơn giản. Ý nghĩa dây chuyền PNJ vàng 18K.  Một trong những món nữ trang thường được nam giới nghĩ đến đầu tiên khi có ý định tặng trang sức cho phái đẹp chính là sợi dây chuyền PNJ vàng 18K. Những chiếc dây chuyền được đeo trang trọng trên cổ với ý nghĩa tượng trưng cho sự bảo vệ của người đàn ông. Không những vậy, hình ảnh chàng trai dịu dàng đeo dây chuyền cho bạn gái được cho là lãng mạn nhất.</t>
+    <t>Dây chuyền NL ACCESSORIES vàng trắng 10K - Vẻ đẹp lấp lánh sang trọng của những món đồ trang sức từ vàng trắng luôn luôn thú hút không chỉ phái đẹp mà cả những cánh mày râu. Bên cạnh chất lượng thì vàng trắng của NL ACCESSORIES nổi tiếng với thiết kế độc đáo, mẫu mã đa dạng. Dây chuyền vàng trắng 10K mới lạ này sẽ chinh phục mọi cô gái. 
+Sợi dây chuyền có giá trị thẩm mỹ cao. Dây chuyền NL ACCESSORIES vàng trắng 10K thiết kế dây đan kiểu chữ cong có màu trắng tinh khiết, ánh kim lấp lánh cùng với đặc tính cứng, dẻo khiến vàng trắng phản quang đàn hồi tốt, chịu đựng được ma sát khi đeo. Vì vậy, ít bị hao mòn biến dạng, gẫy đứt. Đặc biệt có khả năng giữ chắc khi kết hợp với mặt dây chuyền mà không cần lo lắng. 
+Dây chuyền NL ACCESSORIES mang phong cách thời trang riêng. Theo quan niệm màu sắc đặc trưng của vàng trắng sẽ tôn tạo tính cách của người sở hữu. Dù bạn để tóc dài hay ngắn, làn da có hơi ngăm đen cũng không thành vần đề, sắc trắng trung tính của vàng trắng hài hòa sẽ giúp bạn tươi tắn và nổi bật. Phái đẹp luôn muốn thể hiện chính mình trước mọi người vì thế các bạn gái không thể bỏ qua những đặc tính của dây chuyền NL ACCESSORIES này mang lại. Bên cạnh đó, sản phẩm thích hợp với mọi bối cảnh khi bạn xuất hiện, trong những bộ cánh sang trọng hay trẻ trung năng động.</t>
+  </si>
+  <si>
+    <t>Dây Chuyền NL ACCESSORIES Vàng Trắng 10K - Khác với dây cổ, sợi dây chuyền thì bạn có thể mix kết hợp với nhiều mề đay hay những hạt charm có ý nghĩa của riêng mình để tạo ra những phong cách thời trang cá tính cho riêng bạn, giúp nam thanh nữ tú của chúng ta thật sự thời trang và sành điệu – NL ACCESSORIES nơi bạn có thể tự tin tỏa sáng. Tạo phong cách riêng với dây chuyền NL ACCESSORIES. Sở hữu sắc trắng hiện đại và sang trọng của chất liệu vàng trắng 10K – một trong những chất liệu phù hợp nhất khi kết hợp với các loại đá quý. Với dây chuyền vàng trắng các bạn trẻ có thể mix với những hạt charm hay mề đay đính đá quý như kim cương, Topaz, Ruby,… để mang đến những phong cách thời trang cá tính nhưng không kém phần sang trọng , giúp các bạn thật sự trở nên xinh xắn và nổi bật trong các buổi tiệc. Dây chuyền NL ACCESSORIES món quà gợi ý tuyệt vời. Và bạn cũng có thể mix dây chuyền  cùng những bộ trang phục sở hữu cổ áo rộng, sẽ giúp phái đẹp chúng ta trở nên vô cùng xinh xắn trong mắt người đối diện. Đây hứa hẹn sẽ là một sự lựa chọn thú vị cho các cô nàng cá tính, thể hiện "gu" thời trang đầy sự khác biệt của riêng mình.</t>
+  </si>
+  <si>
+    <t>Dây chuyền NL ACCESSORIES vàng 18K - Trang sức vàng 18K được thiết kế với rất nhiều mẫu mã và kiểu dáng khác nhau như: dây chuyền, hoa tai, lắc tay, nhẫn, …Trong đó, dây chuyền NL ACCESSORIES vàng 18K là món đồ phụ kiện trang sức không thể thiếu đối với phái đẹp mỗi khi tự tin bước chân xuống phố. Dây chuyền tạo điểm nhấn nổi bật. Thiết kế kiểu dáng dây thanh mảnh, sang trọng càng tô thêm nét đẹp nữ tính, đằm thắm cho người  Dây chuyền NL ACCESSORIES vàng 18K với sắc vàng rực rỡ đem lại nét rạng ngời cho bạn gái. Ngoài ra, dây chuyền NL ACCESSORIES thích hợp để trưng diện trong những ngày kỷ niệm trọng đại, cuộc vui hay hội nghị. Chắc chắn nó sẽ giúp bạn ghi điểm với người đối diện. Sợi dây chuyền mang phong cách đơn giản, tinh tế. Sợi dây chuyền NL ACCESSORIES không chỉ là nét đơn giản, dịu dàng mà còn mang đến cho phái đẹp vẻ ngoài thu hút. Bên cạnh đó, bạn có thể kết hợp với mặt dây chuyền hình trái tim có gắn đá với những đường uốn lượn và lấp lánh của đá. Trông bạn lúc này sẽ cực kỳ dịu dàng, đằm thắm mà rất đơn giản. Ý nghĩa dây chuyền NL ACCESSORIES vàng 18K.  Một trong những món nữ trang thường được nam giới nghĩ đến đầu tiên khi có ý định tặng trang sức cho phái đẹp chính là sợi dây chuyền NL ACCESSORIES vàng 18K. Những chiếc dây chuyền được đeo trang trọng trên cổ với ý nghĩa tượng trưng cho sự bảo vệ của người đàn ông. Không những vậy, hình ảnh chàng trai dịu dàng đeo dây chuyền cho bạn gái được cho là lãng mạn nhất.</t>
+  </si>
+  <si>
+    <t>Với thương hiệu Michael Kors dành cho nữ với phong cách thời trang, kích thước mặt là 40-45mm, xuất thương hiệu từ Mỹ, xuất xứ bộ máy từ Nhật Bản và được lắp ráp tại Trung Quốc, loại máy đồng hồ:  Quartz, Loại mặt kính là kính khoáng cứng, cùng dây kim loại, Vỏ thép cao cấp không gỉ 316L.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Thông Minh Michael Kors Nữ MKT5070 Dây Cao Su 43mm - với phong cách thời trang, thương hiệu Michael Kors xuất xứ từ Mỹ có độ dày máy là 7mm với loại mặt kính là phản quang, chất liệu vỏ cao cấp không gỉ 316L, dạng mặt tròn không gắn đá và không có kim, độ chịu nước 30m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồng Hồ Fossil Nam FS5535 Dây Nhựa 44mm - Đi cùng phong các doanh nhân thương hiệu Fossil của Mỹ chưa bao giờ làm ta thất vọng - với độ dày của vỏ máy là 11mm, kích thước dây 22mm, kích thước mặt: 40-45mm, chất liệu dây nhựa, độ chịu nước 50m, đồng hồ có 3 kim, vỏ cao cấp không gỉ 316L, Mặt kính khoáng cứng. </t>
+  </si>
+  <si>
+    <t>Đồng Hồ Michael Kors Nữ MK2715 Dây Da 26mm - Đi cùng thương hiệu Michael Korss với phong cách thời trang xuất xứ từ Mỹ, đồng hồ dây da vỏ thép cao cấp không gỉ, loại máy là Quartz, độ dày vỏ máy 7mm, dạng mặt tròn, có gắn kèm đá quý đồng hồ có 2 kim và độ chịu nước là 50m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Skagen Nam SKW8600 Dây Da 40mm - Đi cùng thương hiệu SKAGEN với sở thích thanh lịch của Đan Mạc, loại máy đồng hồ là pin, mặt kính cứng, vỏ thép không gỉ, độ chịu nước 30m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Skagen Nam SKW6666 Dây Thép Không Gỉ 42 mm - Với phong cách thời trang của thương hiệu Skagen, Đan Mạch, kích thước dây 22mm, kích thước mặt 40-45mm , độ dày của vỏ máy 10mm, loại máy đồng hồ Quartz, kính khoáng cứng, vỏ thép cao cấp không gỉ 316L, dây kim loại, đồng hồ có 3 kim và độ chịu nước là 100m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Skagen Nữ SKW2799 Dây Thép Không Gỉ 25mm - Đi cùng thương hiệu Skagen với phong cách thời trang Đan Mạch, loại máy Quartz, mặt tròn, mặt kính khoáng cứng, đồng hồ có 3 kim , vỏ thép cao cấp không gỉ nước 316L, độ chịu nước là 30m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Fossil Nữ ES4650 Dây Da 28mm - Đi cùng thương hiệu Fossil theo phong cách thời trang Mỹ, kích thước dây 12mm, độ dày vỏ máy 7mm, loại máy Quartz, mặt kính khoáng cứng, dây da, mặt tròn , vỏ thép cao cấp không gỉ 316L, đồng hồ có 3 kim và độ chịu nước là 30m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Orient Nam FUNG2001D0 Dây Thép Không Gỉ 42mm - Đi cùng thương hiệu Orient với phong cách cổ điển ở Nhật Bản, kích thước mặt 40-45mm, độ dày của vỏ máy 9mm, loại máy Quartz, mặt kính khoáng cứng, vỏ thép cao cấp không gỉ 316L, đồng hồ có 3kim và độ chịu nước là 50m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ LTP-E143DBL-5ADR Dây Da 30mm - Đi cùng thương hiệu Casio với phong cách thời trang ở Nhật Bản, đồng hồ dành cho nữ này có độ dày vỏ máy 8mm, loại máy đồng hồ Quartz, loại mặt kính khoáng cứng, dây da, Vỏ thép cao cấp không gỉ 316L, mặt tròn, với số kim là 3 và độ chịu nước là 30m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam MTS-100D-1AVDF Dây Thép Không Gỉ 47mm - mang phong cách cổ điển, thương hiệu Casio, Nhật Bản. Kích thước mặt &gt;45mm, độ dày vỏ máy 9mm, loại máy đồng hồ Quartz, dây kim loại, vỏ thép cao cấp không gỉ 316L, mặt tròn, 3 kim , độ chịu nước 50m và có thêm chức năng lịch.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam MTS-100D-2AVDF Dây Thép Không Gỉ 47mm - mang phong cách cổ điển, thương hiệu Casio, Nhật Bản. Với kích thước mặt &gt;45mm, độ dày vỏ máy 9mm, loại máy Quartz, kính khoáng cứng, vỏ thép cao cấp không gỉ 316L, mặt tròn , 3 kim, độ chịu nước 50m và có thêm chức năng lịch.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam EFV-540D-1AVUDF Dây Thép Không Gỉ 49mm - mang phong cách thời trang, Casio, Nhật Bản. Kích thước mặt &gt;45mm, Loại máy Quartz, kính khoáng cứng, dây kim loại, vỏ thép cao cấp không gỉ 316L, mặt tròn 6 kim, độ chịu nước 100m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Edifice Nam EFV-530D-1AVUDF Dây Thép Không Gỉ 53×47,2×12,3mm - mang phong cách cổ điển, Casio, Nhật Bản. Loại máy đồng hồ là pin, kính cứng, thép không gỉ, màu sắc : đen, độ chịu nước 100m.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Fossil Nam FS5535 Dây Nhựa 44mm - Đi cùng phong các doanh nhân thương hiệu Fossil của Mỹ chưa bao giờ làm ta thất vọng - với độ dày của vỏ máy là 11mm, kích thước dây 22mm, kích thước mặt: 40-45mm, chất liệu dây nhựa, độ chịu nước 50m, đồng hồ có thêm chức năng lịch.</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ BGD-560THB-7DR Dây Cao Su 45mm - Thương hiệu Casio, phong cách thể thao, kích thước mặt &gt;45mm, độ dày vỏ máy 13mm, loại máy Quartz, mặt kính khoáng cứng, dây nhựa, vỏ thép cao cấp không gỉ 316L, mặt tròn, 0 kim, độ chịu nước 200m, có thêm chức năng lịch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồng Hồ Casio Nữ BGD-570TH-1DR Dây Cao Su 45mm - với phong cách thể thao, thương hiệu Casio, Nhật Bản. Kích thước mặt &gt;45mm, độ dày vỏ 13mm, loại máy Quartz, mặt kính khoáng cứng, dây nhựa, vỏ thép cao cấp không gỉ 316L, mặt tròn, độ chịu nước 200m, 0 kim và có chức năng lịch. </t>
+  </si>
+  <si>
+    <t>Đồng Hồ Orient Nam SUNE5002W0 Dây Thép Không Gỉ 41mm - Đi cùng thương hiệu Orient là phong cách cổ điển xuất xứ từ Nhật Bản. Kích thước mặt 40-45mm, độ dày vỏ máy 12mm, loại máy Quartz, mặt kính khoáng cứng, dây kim loại, vỏ thép cao cấp không gỉ 316L, mặt tròn, độ chịu nước 100m, có thêm chức năng lịch.</t>
   </si>
 </sst>
 </file>
@@ -965,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2518,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2623,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2725,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2932,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -3037,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3212,132 +3266,564 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>76</v>
       </c>
       <c r="B67" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
       <c r="B68" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>78</v>
       </c>
       <c r="B69" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>195</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>80</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>81</v>
       </c>
       <c r="B72" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>82</v>
       </c>
       <c r="B74" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>83</v>
       </c>
       <c r="B75" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
       <c r="B76" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>85</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>86</v>
       </c>
       <c r="B78" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>203</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
       <c r="B80" t="s">
         <v>109</v>
+      </c>
+      <c r="C80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" t="s">
+        <v>205</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -3347,6 +3833,33 @@
       <c r="B81" t="s">
         <v>109</v>
       </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -3355,6 +3868,33 @@
       <c r="B82" t="s">
         <v>109</v>
       </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -3916,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>106</v>
       </c>

--- a/CuaHangTrangSuc/productsInfo/product-detail.xlsx
+++ b/CuaHangTrangSuc/productsInfo/product-detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Documents\GitHub\CuaHangTrangSuc-Nhom4-\CuaHangTrangSuc\productsInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecon\Documents\GitHub\CuaHangTrangSuc-Nhom4-\CuaHangTrangSuc\productsInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="210">
   <si>
     <t>id-product</t>
   </si>
@@ -206,15 +206,9 @@
     <t>SLXMZTK000002</t>
   </si>
   <si>
-    <t> SVNH00W000001</t>
-  </si>
-  <si>
     <t>SV0000C000005</t>
   </si>
   <si>
-    <t> SVXMXMK000015</t>
-  </si>
-  <si>
     <t>SV0000W000007</t>
   </si>
   <si>
@@ -272,12 +266,6 @@
     <t>WFO00000258</t>
   </si>
   <si>
-    <t> WCA00000261</t>
-  </si>
-  <si>
-    <t> WCA00000338</t>
-  </si>
-  <si>
     <t>WCA00000339</t>
   </si>
   <si>
@@ -300,9 +288,6 @@
   </si>
   <si>
     <t>GD0000W000220</t>
-  </si>
-  <si>
-    <t> GD0000W000177</t>
   </si>
   <si>
     <t>GD0000Y000711</t>
@@ -660,6 +645,27 @@
   </si>
   <si>
     <t>Đồng Hồ Orient Nam SUNE5002W0 Dây Thép Không Gỉ 41mm - Đi cùng thương hiệu Orient là phong cách cổ điển xuất xứ từ Nhật Bản. Kích thước mặt 40-45mm, độ dày vỏ máy 12mm, loại máy Quartz, mặt kính khoáng cứng, dây kim loại, vỏ thép cao cấp không gỉ 316L, mặt tròn, độ chịu nước 100m, có thêm chức năng lịch.</t>
+  </si>
+  <si>
+    <t>WOR00000064</t>
+  </si>
+  <si>
+    <t>GD0000W000177</t>
+  </si>
+  <si>
+    <t>WCA00000338</t>
+  </si>
+  <si>
+    <t>WCA00000262</t>
+  </si>
+  <si>
+    <t>SVXMXMK000015</t>
+  </si>
+  <si>
+    <t>SVNH00W000001</t>
+  </si>
+  <si>
+    <t>WFO00000108</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,13 +1081,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -1110,13 +1116,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1145,13 +1151,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1180,13 +1186,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1215,13 +1221,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1250,13 +1256,13 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1285,13 +1291,13 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1320,13 +1326,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -1355,13 +1361,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1390,13 +1396,13 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1425,13 +1431,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1460,13 +1466,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1495,13 +1501,13 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -1530,13 +1536,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1565,13 +1571,13 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1600,13 +1606,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1635,13 +1641,13 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1670,13 +1676,13 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1705,13 +1711,13 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1740,13 +1746,13 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1775,13 +1781,13 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1810,13 +1816,13 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1845,13 +1851,13 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1880,13 +1886,13 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -1915,13 +1921,13 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1950,13 +1956,13 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1985,13 +1991,13 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2020,13 +2026,13 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2055,13 +2061,13 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2090,13 +2096,13 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,13 +2131,13 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -2160,13 +2166,13 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2195,13 +2201,13 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2230,13 +2236,13 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2252,6 +2258,9 @@
       </c>
       <c r="I35" t="b">
         <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -2262,13 +2271,13 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -2297,13 +2306,13 @@
         <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -2332,13 +2341,13 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2367,13 +2376,13 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2402,13 +2411,13 @@
         <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2437,13 +2446,13 @@
         <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2472,13 +2481,13 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -2507,13 +2516,13 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -2542,13 +2551,13 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2577,13 +2586,13 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2612,13 +2621,13 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -2647,13 +2656,13 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -2682,13 +2691,13 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -2717,10 +2726,13 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -2749,13 +2761,13 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -2781,16 +2793,19 @@
     </row>
     <row r="51" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2813,16 +2828,16 @@
     </row>
     <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2848,16 +2863,16 @@
     </row>
     <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -2883,16 +2898,16 @@
     </row>
     <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -2918,16 +2933,16 @@
     </row>
     <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -2953,16 +2968,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -2988,16 +3003,16 @@
     </row>
     <row r="57" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -3023,16 +3038,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -3058,16 +3073,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -3093,16 +3108,16 @@
     </row>
     <row r="60" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -3128,16 +3143,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -3163,16 +3178,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E62">
         <v>5</v>
@@ -3198,16 +3213,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -3233,16 +3248,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E64">
         <v>5</v>
@@ -3268,16 +3283,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3303,16 +3318,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3338,16 +3353,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -3373,16 +3388,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3408,16 +3423,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3443,16 +3458,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3478,16 +3493,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3513,16 +3528,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3548,16 +3563,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3583,16 +3598,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3618,16 +3633,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -3653,16 +3668,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3688,16 +3703,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3723,16 +3738,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3758,16 +3773,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3793,16 +3808,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D80" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3828,16 +3843,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3863,16 +3878,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E82">
         <v>5</v>
@@ -3898,16 +3913,16 @@
     </row>
     <row r="83" spans="1:11" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3933,16 +3948,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -3968,16 +3983,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4003,16 +4018,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4038,16 +4053,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -4073,16 +4088,16 @@
     </row>
     <row r="88" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -4108,16 +4123,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -4143,16 +4158,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -4178,16 +4193,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -4213,16 +4228,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -4248,16 +4263,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D93" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -4283,16 +4298,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -4318,16 +4333,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -4353,16 +4368,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4388,16 +4403,16 @@
     </row>
     <row r="97" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -4423,16 +4438,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4458,16 +4473,16 @@
     </row>
     <row r="99" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4493,16 +4508,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4528,16 +4543,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E101">
         <v>0</v>
